--- a/example.xlsx
+++ b/example.xlsx
@@ -1,78 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.elesin\PycharmProjects\autolabel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC1D865-53DE-4699-90E9-22CCC12DD5DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="example" sheetId="1" r:id="rId1"/>
+    <sheet name="example" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Путь к файлу / папке</t>
-  </si>
-  <si>
-    <t>Текст</t>
-  </si>
-  <si>
-    <t>Разрешение</t>
-  </si>
-  <si>
-    <t>Размер, Мб</t>
-  </si>
-  <si>
-    <t>Размер текста</t>
-  </si>
-  <si>
-    <t>Прозрачность</t>
-  </si>
-  <si>
-    <t>Стандартные</t>
-  </si>
-  <si>
-    <t>C:\Users\a.elesin\PycharmProjects\autolabel\files</t>
-  </si>
-  <si>
-    <t>Название работы:
-Картина «Тестовая работа»
-Техника исполнения:
-Бумагокручение из полосок квиллинга
-Ф. И. учащегося:
-Елесин Алексей Игоревич
-Возраст: 23 г.
-Коллектив: "Сам себе злобный буратино"</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -271,79 +227,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -643,415 +590,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" style="13" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="10"/>
+    <col width="13.140625" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
+    <col width="27.140625" customWidth="1" style="10" min="2" max="2"/>
+    <col width="72.42578125" customWidth="1" style="13" min="3" max="3"/>
+    <col width="8.7109375" customWidth="1" style="10" min="4" max="5"/>
+    <col width="11.5703125" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
+    <col width="14" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="10" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="10" min="9" max="14"/>
+    <col width="9.140625" customWidth="1" style="10" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="14" t="n"/>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Путь к файлу / папке</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>Текст</t>
+        </is>
+      </c>
+      <c r="D1" s="19" t="inlineStr">
+        <is>
+          <t>Разрешение</t>
+        </is>
+      </c>
+      <c r="E1" s="20" t="n"/>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Размер, Мб</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Размер текста</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="inlineStr">
+        <is>
+          <t>Прозрачность</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Стандартные</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>Название работы:
+Картина «Тестовая работа»
+Техника исполнения:
+Бумагокручение из полосок квиллинга
+Ф. И. учащегося:
+Елесин Алексей Игоревич
+Возраст: 23 г.
+Коллектив: "Сам себе злобный буратино"</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>2250</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files\IMG_20191230_081332.jpg</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="8" t="s">
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files\IMG_20191230_081350.jpg</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files\IMG_20191230_081411.jpg</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" s="11" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" s="11" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="11" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2250</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>50</v>
-      </c>
-      <c r="H2" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="11" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="B11" s="12" t="n"/>
+      <c r="C11" s="11" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" s="11" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="11" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" s="11" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" s="11" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" s="11" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="11" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="11" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="B19" s="12" t="n"/>
+      <c r="C19" s="11" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" s="11" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="11" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="11" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="B23" s="12" t="n"/>
+      <c r="C23" s="11" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="B24" s="12" t="n"/>
+      <c r="C24" s="11" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="B25" s="12" t="n"/>
+      <c r="C25" s="11" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="B26" s="12" t="n"/>
+      <c r="C26" s="11" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="11" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="B28" s="12" t="n"/>
+      <c r="C28" s="11" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="B29" s="12" t="n"/>
+      <c r="C29" s="11" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="B30" s="12" t="n"/>
+      <c r="C30" s="11" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="B31" s="12" t="n"/>
+      <c r="C31" s="11" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="B32" s="12" t="n"/>
+      <c r="C32" s="11" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="B33" s="12" t="n"/>
+      <c r="C33" s="11" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="B34" s="12" t="n"/>
+      <c r="C34" s="11" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="B35" s="12" t="n"/>
+      <c r="C35" s="11" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="B36" s="12" t="n"/>
+      <c r="C36" s="11" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="B37" s="12" t="n"/>
+      <c r="C37" s="11" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="16" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="B38" s="12" t="n"/>
+      <c r="C38" s="11" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="B39" s="12" t="n"/>
+      <c r="C39" s="11" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="16" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="B40" s="12" t="n"/>
+      <c r="C40" s="11" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="B41" s="12" t="n"/>
+      <c r="C41" s="11" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="B42" s="12" t="n"/>
+      <c r="C42" s="11" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="B43" s="12" t="n"/>
+      <c r="C43" s="11" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="B44" s="12" t="n"/>
+      <c r="C44" s="11" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="B45" s="12" t="n"/>
+      <c r="C45" s="11" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="16" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="B46" s="12" t="n"/>
+      <c r="C46" s="11" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="16" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="B47" s="12" t="n"/>
+      <c r="C47" s="11" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="16" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="B48" s="12" t="n"/>
+      <c r="C48" s="11" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="16" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
+      <c r="B49" s="12" t="n"/>
+      <c r="C49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="12" t="n"/>
+      <c r="C50" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -1,34 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.elesin\PycharmProjects\autolabel-gui\autolabel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AC1F0-0047-411A-899A-9BD2B3310F9C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="example" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Путь к файлу / папке</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Разрешение</t>
+  </si>
+  <si>
+    <t>Размер, Мб</t>
+  </si>
+  <si>
+    <t>Размер текста</t>
+  </si>
+  <si>
+    <t>Прозрачность</t>
+  </si>
+  <si>
+    <t>Стандартные</t>
+  </si>
+  <si>
+    <t>Название работы:
+Картина «Тестовая работа»
+Техника исполнения:
+Бумагокручение из полосок квиллинга
+Ф. И. учащегося:
+Елесин Алексей Игоревич
+Возраст: 23 г.
+Коллектив: "Сам себе злобный буратино"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -227,70 +268,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,456 +640,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.140625" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
-    <col width="27.140625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="72.42578125" customWidth="1" style="13" min="3" max="3"/>
-    <col width="8.7109375" customWidth="1" style="10" min="4" max="5"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
-    <col width="14" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" style="10" min="8" max="8"/>
-    <col width="9.140625" customWidth="1" style="10" min="9" max="14"/>
-    <col width="9.140625" customWidth="1" style="10" min="15" max="16384"/>
+    <col min="1" max="1" width="13.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="n"/>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Путь к файлу / папке</t>
-        </is>
-      </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>Текст</t>
-        </is>
-      </c>
-      <c r="D1" s="19" t="inlineStr">
-        <is>
-          <t>Разрешение</t>
-        </is>
-      </c>
-      <c r="E1" s="20" t="n"/>
-      <c r="F1" s="8" t="inlineStr">
-        <is>
-          <t>Размер, Мб</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Размер текста</t>
-        </is>
-      </c>
-      <c r="H1" s="9" t="inlineStr">
-        <is>
-          <t>Прозрачность</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A2" s="15" t="inlineStr">
-        <is>
-          <t>Стандартные</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>Название работы:
-Картина «Тестовая работа»
-Техника исполнения:
-Бумагокручение из полосок квиллинга
-Ф. И. учащегося:
-Елесин Алексей Игоревич
-Возраст: 23 г.
-Коллектив: "Сам себе злобный буратино"</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
         <v>3000</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>2250</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>50</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="16" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files\IMG_20191230_081332.jpg</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="n">
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files\IMG_20191230_081350.jpg</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="n">
+      <c r="B4" s="12"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>C:\Users\a.elesin\PycharmProjects\autolabel\files\IMG_20191230_081411.jpg</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="n">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="n"/>
-      <c r="C6" s="11" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="n">
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="n"/>
-      <c r="C7" s="11" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="16" t="n">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="n"/>
-      <c r="C8" s="11" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="n">
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="n"/>
-      <c r="C9" s="11" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="16" t="n">
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="n"/>
-      <c r="C10" s="11" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="n">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="n"/>
-      <c r="C11" s="11" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="n">
+      <c r="B11" s="12"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="n"/>
-      <c r="C12" s="11" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="n">
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="n"/>
-      <c r="C13" s="11" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="n">
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="11" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="n">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="n"/>
-      <c r="C15" s="11" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="n">
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="n"/>
-      <c r="C16" s="11" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="16" t="n">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="n"/>
-      <c r="C17" s="11" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16" t="n">
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="n"/>
-      <c r="C18" s="11" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="16" t="n">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="n"/>
-      <c r="C19" s="11" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="16" t="n">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="n"/>
-      <c r="C20" s="11" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="16" t="n">
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="n"/>
-      <c r="C21" s="11" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="16" t="n">
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="n"/>
-      <c r="C22" s="11" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="16" t="n">
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="n"/>
-      <c r="C23" s="11" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="16" t="n">
+      <c r="B23" s="12"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="n"/>
-      <c r="C24" s="11" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="16" t="n">
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="n"/>
-      <c r="C25" s="11" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="16" t="n">
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="n"/>
-      <c r="C26" s="11" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="16" t="n">
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="n"/>
-      <c r="C27" s="11" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="16" t="n">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="n"/>
-      <c r="C28" s="11" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="16" t="n">
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="n"/>
-      <c r="C29" s="11" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="16" t="n">
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="n"/>
-      <c r="C30" s="11" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="16" t="n">
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="n"/>
-      <c r="C31" s="11" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="16" t="n">
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="n"/>
-      <c r="C32" s="11" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="16" t="n">
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="n"/>
-      <c r="C33" s="11" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="16" t="n">
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B34" s="12" t="n"/>
-      <c r="C34" s="11" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="16" t="n">
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="n"/>
-      <c r="C35" s="11" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="16" t="n">
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="n"/>
-      <c r="C36" s="11" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="16" t="n">
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="n"/>
-      <c r="C37" s="11" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="16" t="n">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="n"/>
-      <c r="C38" s="11" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="16" t="n">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>37</v>
       </c>
-      <c r="B39" s="12" t="n"/>
-      <c r="C39" s="11" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="16" t="n">
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="n"/>
-      <c r="C40" s="11" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="16" t="n">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>39</v>
       </c>
-      <c r="B41" s="12" t="n"/>
-      <c r="C41" s="11" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="16" t="n">
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="n"/>
-      <c r="C42" s="11" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="16" t="n">
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="n"/>
-      <c r="C43" s="11" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="16" t="n">
+      <c r="B43" s="12"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="n"/>
-      <c r="C44" s="11" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="16" t="n">
+      <c r="B44" s="12"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>43</v>
       </c>
-      <c r="B45" s="12" t="n"/>
-      <c r="C45" s="11" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="16" t="n">
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="n"/>
-      <c r="C46" s="11" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="16" t="n">
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="n"/>
-      <c r="C47" s="11" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="16" t="n">
+      <c r="B47" s="12"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="n"/>
-      <c r="C48" s="11" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="16" t="n">
+      <c r="B48" s="12"/>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="n"/>
-      <c r="C49" s="11" t="n"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="17" t="n">
+      <c r="B49" s="12"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17">
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="n"/>
-      <c r="C50" s="11" t="n"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>